--- a/StructureDefinition-onconova-secondary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-secondary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:38:38+00:00</t>
+    <t>2025-10-15T14:58:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-secondary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-secondary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:58:32+00:00</t>
+    <t>2025-10-15T15:04:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-secondary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-secondary-cancer-condition.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$63</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="427">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:04:18+00:00</t>
+    <t>2025-10-17T13:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -273,7 +273,7 @@
   </si>
   <si>
     <t>con-3:Condition.clinicalStatus SHALL be present if verificationStatus is not entered-in-error and category is problem-list-item {clinicalStatus.exists() or verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code = 'entered-in-error').exists() or category.select($this='problem-list-item').empty()}
-con-4:If condition is abated, then clinicalStatus must be either inactive, resolved, or remission {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-5:Condition.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+con-4:If condition is abated, then clinicalStatus must be either inactive, resolved, or remission {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-5:Condition.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}o-con-1:If clinicalStatus is 'recurrence', the recurrenceOf extension must be provided. {clinicalStatus.exists() and clinicalStatus.coding.code = 'recurrence' implies extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-recurrence-of').exists()}o-con-2:If clinicalStatus is 'recurrence', the type of recurrence must be provided. {clinicalStatus.exists() and clinicalStatus.coding.code = 'recurrence' implies clinicalStatus.extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-recurrence-type').exists()}o-con-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-con-req-2:The assertedDate extension is required and must be provided. {extension('http://hl7.org/fhir/StructureDefinition/condition-assertedDate').exists()}o-con-req-3:The bodySite element is required and must be provided. {bodySite.exists() and bodySite.coding.exists()}o-con-req-4:The histologyMorphologyBehavior extension is required and must be provided. {extension('http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-histology-morphology-behavior').exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -572,7 +572,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-icdo3-morphology-behavior|0.1.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-icdo3-morphology-behavior|0.2.0</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -612,7 +612,7 @@
     <t>Condition.extension:relatedPrimaryCancerCondition.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-primary-cancer-condition|0.1.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-primary-cancer-condition|0.2.0)
 </t>
   </si>
   <si>
@@ -623,6 +623,22 @@
 </t>
   </si>
   <si>
+    <t>Condition.extension:recurrenceOf</t>
+  </si>
+  <si>
+    <t>recurrenceOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-recurrence-of|0.2.0}
+</t>
+  </si>
+  <si>
+    <t>Recurrence Of</t>
+  </si>
+  <si>
+    <t>Indicates that the condition is a recurrence of a previous condition, and provides a reference to that previous condition.</t>
+  </si>
+  <si>
     <t>Condition.modifierExtension</t>
   </si>
   <si>
@@ -707,6 +723,86 @@
   </si>
   <si>
     <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Condition.clinicalStatus.id</t>
+  </si>
+  <si>
+    <t>Condition.clinicalStatus.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Condition.clinicalStatus.extension:recurrenceType</t>
+  </si>
+  <si>
+    <t>recurrenceType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-recurrence-type|0.2.0}
+</t>
+  </si>
+  <si>
+    <t>Recurrence Type</t>
+  </si>
+  <si>
+    <t>Indicates the type of recurrence for the condition (local or regional).</t>
+  </si>
+  <si>
+    <t>Condition.clinicalStatus.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Condition.clinicalStatus.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Condition.verificationStatus</t>
@@ -900,7 +996,7 @@
     <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-icdo3-topography|0.1.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-icdo3-topography|0.2.0</t>
   </si>
   <si>
     <t>&lt; 442083009  |Anatomical or acquired body structure|</t>
@@ -916,12 +1012,6 @@
   </si>
   <si>
     <t>Condition.bodySite.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Condition.bodySite.extension:locationQualifier</t>
@@ -953,53 +1043,7 @@
     <t>Condition.bodySite.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
     <t>Condition.bodySite.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Condition.subject</t>
@@ -1009,7 +1053,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.1.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
 </t>
   </si>
   <si>
@@ -1642,7 +1686,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP57"/>
+  <dimension ref="A1:AP63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4086,48 +4130,46 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>194</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="D21" t="s" s="2">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N21" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="O21" t="s" s="2">
-        <v>199</v>
-      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>20</v>
       </c>
@@ -4175,7 +4217,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4199,7 +4241,7 @@
         <v>20</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>20</v>
@@ -4210,14 +4252,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4230,25 +4272,25 @@
         <v>20</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4297,7 +4339,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4309,10 +4351,10 @@
         <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>20</v>
@@ -4321,21 +4363,21 @@
         <v>20</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>208</v>
+        <v>133</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4346,30 +4388,32 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="O23" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M23" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>20</v>
       </c>
@@ -4393,11 +4437,13 @@
         <v>20</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y23" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z23" t="s" s="2">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>20</v>
@@ -4415,34 +4461,34 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>215</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>20</v>
@@ -4450,10 +4496,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4479,13 +4525,13 @@
         <v>174</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4515,7 +4561,7 @@
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>20</v>
@@ -4533,7 +4579,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4542,36 +4588,36 @@
         <v>90</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>229</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4579,13 +4625,13 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G25" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H25" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>20</v>
@@ -4594,17 +4640,15 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4629,83 +4673,83 @@
         <v>20</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>234</v>
+        <v>20</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>232</v>
+        <v>20</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AC25" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="AD25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>230</v>
+        <v>159</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>237</v>
+        <v>20</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>238</v>
+        <v>20</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>239</v>
+        <v>160</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>20</v>
@@ -4714,16 +4758,16 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4749,31 +4793,31 @@
         <v>20</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>177</v>
+        <v>20</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>245</v>
+        <v>20</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>230</v>
+        <v>164</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4785,36 +4829,36 @@
         <v>20</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>237</v>
+        <v>20</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>238</v>
+        <v>20</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>239</v>
+        <v>160</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>20</v>
@@ -4824,10 +4868,10 @@
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>20</v>
@@ -4836,20 +4880,16 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>174</v>
+        <v>232</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>20</v>
       </c>
@@ -4873,13 +4913,13 @@
         <v>20</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>177</v>
+        <v>20</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>251</v>
+        <v>20</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>20</v>
@@ -4897,7 +4937,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>230</v>
+        <v>164</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4909,22 +4949,22 @@
         <v>20</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>237</v>
+        <v>20</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>238</v>
+        <v>20</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>239</v>
+        <v>20</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>20</v>
@@ -4932,10 +4972,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4946,7 +4986,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -4955,21 +4995,23 @@
         <v>20</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>174</v>
+        <v>236</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
       </c>
@@ -4993,13 +5035,13 @@
         <v>20</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
@@ -5017,13 +5059,13 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>20</v>
@@ -5035,41 +5077,41 @@
         <v>20</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>259</v>
+        <v>20</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>260</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>262</v>
+        <v>20</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>20</v>
@@ -5078,17 +5120,19 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O29" t="s" s="2">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -5098,7 +5142,7 @@
         <v>20</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>20</v>
@@ -5113,11 +5157,13 @@
         <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="Y29" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z29" t="s" s="2">
-        <v>267</v>
+        <v>20</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -5135,7 +5181,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5150,30 +5196,30 @@
         <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>268</v>
+        <v>20</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>269</v>
+        <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>272</v>
+        <v>20</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>273</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5181,16 +5227,16 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G30" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G30" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>91</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>91</v>
@@ -5199,13 +5245,13 @@
         <v>174</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5235,7 +5281,7 @@
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>20</v>
@@ -5253,45 +5299,45 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>20</v>
+        <v>221</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>20</v>
+        <v>258</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>20</v>
+        <v>225</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>281</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5299,13 +5345,13 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>20</v>
@@ -5314,15 +5360,17 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>157</v>
+        <v>262</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5347,83 +5395,83 @@
         <v>20</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>20</v>
+        <v>265</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>159</v>
+        <v>261</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>20</v>
+        <v>268</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>20</v>
+        <v>271</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="D32" t="s" s="2">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>20</v>
@@ -5432,16 +5480,16 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>198</v>
+        <v>264</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5467,31 +5515,31 @@
         <v>20</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>20</v>
+        <v>275</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>20</v>
+        <v>276</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>164</v>
+        <v>261</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5503,22 +5551,22 @@
         <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>20</v>
+        <v>268</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>20</v>
+        <v>271</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>20</v>
@@ -5526,13 +5574,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>20</v>
@@ -5554,16 +5602,20 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>288</v>
+        <v>174</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
       </c>
@@ -5587,13 +5639,13 @@
         <v>20</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>20</v>
+        <v>275</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>20</v>
+        <v>282</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>20</v>
@@ -5611,7 +5663,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>164</v>
+        <v>261</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5623,37 +5675,35 @@
         <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>20</v>
+        <v>268</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>20</v>
+        <v>271</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="C34" t="s" s="2">
-        <v>291</v>
-      </c>
+      <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
         <v>20</v>
       </c>
@@ -5665,7 +5715,7 @@
         <v>90</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>20</v>
@@ -5674,15 +5724,17 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>292</v>
+        <v>174</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -5707,13 +5759,13 @@
         <v>20</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>20</v>
+        <v>285</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>20</v>
+        <v>286</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>20</v>
@@ -5731,59 +5783,59 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>164</v>
+        <v>283</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>20</v>
+        <v>288</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>20</v>
+        <v>289</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>20</v>
+        <v>290</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>20</v>
+        <v>291</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>20</v>
@@ -5792,19 +5844,17 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -5814,7 +5864,7 @@
         <v>20</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>20</v>
+        <v>297</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>20</v>
@@ -5829,13 +5879,11 @@
         <v>20</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="Y35" s="2"/>
       <c r="Z35" t="s" s="2">
-        <v>20</v>
+        <v>298</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>20</v>
@@ -5853,13 +5901,13 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>20</v>
@@ -5868,10 +5916,10 @@
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>20</v>
+        <v>299</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>301</v>
@@ -5880,18 +5928,18 @@
         <v>302</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>20</v>
+        <v>303</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>20</v>
+        <v>304</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5899,13 +5947,13 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>20</v>
@@ -5914,20 +5962,18 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>20</v>
       </c>
@@ -5951,13 +5997,11 @@
         <v>20</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>20</v>
+        <v>309</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>20</v>
@@ -5975,13 +6019,13 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>20</v>
@@ -5993,61 +6037,59 @@
         <v>20</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>20</v>
+        <v>310</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>309</v>
+        <v>20</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>20</v>
+        <v>312</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>312</v>
+        <v>20</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>313</v>
+        <v>156</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>314</v>
+        <v>157</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>316</v>
-      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>20</v>
       </c>
@@ -6095,10 +6137,10 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>311</v>
+        <v>159</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>90</v>
@@ -6107,22 +6149,22 @@
         <v>20</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>317</v>
+        <v>20</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>318</v>
+        <v>20</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>319</v>
+        <v>160</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>320</v>
+        <v>20</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>20</v>
@@ -6130,21 +6172,21 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>20</v>
@@ -6153,19 +6195,19 @@
         <v>20</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>322</v>
+        <v>135</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>323</v>
+        <v>203</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6203,46 +6245,46 @@
         <v>20</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>321</v>
+        <v>164</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>324</v>
+        <v>20</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>325</v>
+        <v>20</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>326</v>
+        <v>160</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>327</v>
+        <v>20</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>20</v>
@@ -6250,12 +6292,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="D39" t="s" s="2">
         <v>20</v>
       </c>
@@ -6264,7 +6308,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>91</v>
@@ -6273,20 +6317,18 @@
         <v>20</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -6335,34 +6377,34 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>328</v>
+        <v>164</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>333</v>
+        <v>20</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>334</v>
+        <v>20</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>335</v>
+        <v>20</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>336</v>
+        <v>20</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>20</v>
@@ -6370,12 +6412,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="D40" t="s" s="2">
         <v>20</v>
       </c>
@@ -6396,17 +6440,15 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -6455,19 +6497,19 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>337</v>
+        <v>164</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>341</v>
+        <v>20</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>20</v>
@@ -6479,21 +6521,21 @@
         <v>20</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>342</v>
+        <v>20</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>343</v>
+        <v>20</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6504,10 +6546,10 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>20</v>
@@ -6516,16 +6558,20 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>345</v>
+        <v>236</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
       </c>
@@ -6573,13 +6619,13 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>344</v>
+        <v>241</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>20</v>
@@ -6594,13 +6640,13 @@
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>346</v>
+        <v>242</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>347</v>
+        <v>243</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>348</v>
+        <v>20</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>20</v>
@@ -6608,10 +6654,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6634,16 +6680,20 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>350</v>
+        <v>156</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
       </c>
@@ -6691,7 +6741,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>349</v>
+        <v>249</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6712,38 +6762,38 @@
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>352</v>
+        <v>20</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>20</v>
+        <v>326</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>20</v>
@@ -6752,16 +6802,18 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>222</v>
+        <v>328</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>222</v>
+        <v>329</v>
       </c>
       <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
       </c>
@@ -6809,10 +6861,10 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>90</v>
@@ -6824,19 +6876,19 @@
         <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>20</v>
+        <v>331</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>20</v>
@@ -6844,10 +6896,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6858,7 +6910,7 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>20</v>
@@ -6867,18 +6919,20 @@
         <v>20</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -6927,45 +6981,45 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>359</v>
+        <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>20</v>
+        <v>338</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>20</v>
+        <v>339</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>20</v>
+        <v>341</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6979,24 +7033,26 @@
         <v>90</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>156</v>
+        <v>343</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>157</v>
+        <v>344</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -7045,7 +7101,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>159</v>
+        <v>342</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7057,47 +7113,47 @@
         <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>20</v>
+        <v>347</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>20</v>
+        <v>348</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>160</v>
+        <v>349</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>20</v>
@@ -7106,16 +7162,16 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>135</v>
+        <v>343</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>284</v>
+        <v>352</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>285</v>
+        <v>353</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>198</v>
+        <v>354</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7165,19 +7221,19 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>164</v>
+        <v>351</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>20</v>
+        <v>355</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>20</v>
@@ -7189,57 +7245,53 @@
         <v>20</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>160</v>
+        <v>356</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>20</v>
+        <v>357</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>364</v>
+        <v>20</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>135</v>
+        <v>359</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>365</v>
+        <v>253</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>20</v>
       </c>
@@ -7287,19 +7339,19 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>20</v>
@@ -7308,13 +7360,13 @@
         <v>20</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>20</v>
+        <v>360</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>133</v>
+        <v>361</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>20</v>
+        <v>362</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>20</v>
@@ -7322,10 +7374,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7345,16 +7397,16 @@
         <v>20</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>174</v>
+        <v>364</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>369</v>
+        <v>253</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>370</v>
+        <v>253</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7381,13 +7433,13 @@
         <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>371</v>
+        <v>20</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>372</v>
+        <v>20</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>20</v>
@@ -7405,7 +7457,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7414,7 +7466,7 @@
         <v>90</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>374</v>
+        <v>20</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>102</v>
@@ -7423,16 +7475,16 @@
         <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>375</v>
+        <v>20</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>20</v>
+        <v>366</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>20</v>
@@ -7440,10 +7492,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7454,7 +7506,7 @@
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>20</v>
@@ -7463,16 +7515,16 @@
         <v>20</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>378</v>
+        <v>253</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>379</v>
+        <v>253</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7523,16 +7575,16 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>374</v>
+        <v>20</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>102</v>
@@ -7544,13 +7596,13 @@
         <v>20</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>20</v>
+        <v>368</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>20</v>
+        <v>370</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>20</v>
@@ -7558,10 +7610,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7572,7 +7624,7 @@
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>20</v>
@@ -7584,13 +7636,13 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>174</v>
+        <v>372</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>382</v>
+        <v>253</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>383</v>
+        <v>253</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7617,43 +7669,43 @@
         <v>20</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF50" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>381</v>
-      </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>102</v>
+        <v>373</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>20</v>
@@ -7665,7 +7717,7 @@
         <v>20</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>20</v>
@@ -7676,10 +7728,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7690,7 +7742,7 @@
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>20</v>
@@ -7702,17 +7754,15 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>358</v>
+        <v>156</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>222</v>
+        <v>157</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -7761,19 +7811,19 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>387</v>
+        <v>159</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>389</v>
+        <v>20</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>20</v>
@@ -7785,7 +7835,7 @@
         <v>20</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>390</v>
+        <v>160</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
@@ -7796,21 +7846,21 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>20</v>
@@ -7822,15 +7872,17 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>157</v>
+        <v>228</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -7879,19 +7931,19 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>20</v>
@@ -7914,14 +7966,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>195</v>
+        <v>378</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7934,24 +7986,26 @@
         <v>20</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>284</v>
+        <v>379</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>285</v>
+        <v>380</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
       </c>
@@ -7999,7 +8053,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>164</v>
+        <v>381</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8023,7 +8077,7 @@
         <v>20</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>20</v>
@@ -8034,46 +8088,42 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>364</v>
+        <v>20</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>20</v>
       </c>
@@ -8097,13 +8147,13 @@
         <v>20</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>20</v>
+        <v>385</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>20</v>
+        <v>386</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>20</v>
+        <v>387</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>20</v>
@@ -8121,31 +8171,31 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>20</v>
+        <v>388</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>20</v>
+        <v>389</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>20</v>
+        <v>223</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>133</v>
+        <v>302</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>20</v>
@@ -8156,10 +8206,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8179,16 +8229,16 @@
         <v>20</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>174</v>
+        <v>391</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8215,11 +8265,13 @@
         <v>20</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y55" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z55" t="s" s="2">
-        <v>397</v>
+        <v>20</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>20</v>
@@ -8237,7 +8289,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8246,25 +8298,25 @@
         <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>399</v>
+        <v>20</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>237</v>
+        <v>20</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>401</v>
+        <v>20</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>20</v>
@@ -8272,10 +8324,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8286,7 +8338,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>20</v>
@@ -8295,16 +8347,16 @@
         <v>20</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>403</v>
+        <v>174</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8331,13 +8383,13 @@
         <v>20</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>20</v>
+        <v>385</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>20</v>
+        <v>398</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>20</v>
+        <v>399</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>20</v>
@@ -8355,16 +8407,16 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>398</v>
+        <v>20</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>102</v>
@@ -8379,10 +8431,10 @@
         <v>20</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>401</v>
+        <v>20</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>20</v>
@@ -8390,10 +8442,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8416,15 +8468,17 @@
         <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>407</v>
+        <v>372</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>408</v>
+        <v>253</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>20</v>
@@ -8473,7 +8527,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8485,29 +8539,741 @@
         <v>20</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP57" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP58" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP59" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP60" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="Y61" s="2"/>
+      <c r="Z61" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AK57" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AN57" t="s" s="2">
+      <c r="AK61" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AP61" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI62" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AO57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP57" t="s" s="2">
+      <c r="AJ62" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AP62" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP63" t="s" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP57">
+  <autoFilter ref="A1:AP63">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8517,7 +9283,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI56">
+  <conditionalFormatting sqref="A2:AI62">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-onconova-secondary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-secondary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:44:17+00:00</t>
+    <t>2025-11-07T05:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-secondary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-secondary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T05:59:36+00:00</t>
+    <t>2025-11-11T12:30:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-secondary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-secondary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:30:26+00:00</t>
+    <t>2025-11-11T12:47:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-secondary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-secondary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:47:38+00:00</t>
+    <t>2025-11-18T09:06:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-secondary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-secondary-cancer-condition.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$57</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="413">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:06:42+00:00</t>
+    <t>2025-11-19T13:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -273,7 +273,7 @@
   </si>
   <si>
     <t>con-3:Condition.clinicalStatus SHALL be present if verificationStatus is not entered-in-error and category is problem-list-item {clinicalStatus.exists() or verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code = 'entered-in-error').exists() or category.select($this='problem-list-item').empty()}
-con-4:If condition is abated, then clinicalStatus must be either inactive, resolved, or remission {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-5:Condition.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}o-con-1:If clinicalStatus is 'recurrence', the recurrenceOf extension must be provided. {clinicalStatus.exists() and clinicalStatus.coding.code = 'recurrence' implies extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-recurrence-of').exists()}o-con-2:If clinicalStatus is 'recurrence', the type of recurrence must be provided. {clinicalStatus.exists() and clinicalStatus.coding.code = 'recurrence' implies clinicalStatus.extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-recurrence-type').exists()}o-con-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-con-req-2:The assertedDate extension is required and must be provided. {extension('http://hl7.org/fhir/StructureDefinition/condition-assertedDate').exists()}o-con-req-3:The bodySite element is required and must be provided. {bodySite.exists() and bodySite.coding.exists()}o-con-req-4:The histologyMorphologyBehavior extension is required and must be provided. {extension('http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-histology-morphology-behavior').exists()}</t>
+con-4:If condition is abated, then clinicalStatus must be either inactive, resolved, or remission {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-5:Condition.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}o-con-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-con-req-2:The assertedDate extension is required and must be provided. {extension('http://hl7.org/fhir/StructureDefinition/condition-assertedDate').exists()}o-con-req-3:The bodySite element is required and must be provided. {bodySite.exists() and bodySite.coding.exists()}o-con-req-4:The histologyMorphologyBehavior extension is required and must be provided. {extension('http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-histology-morphology-behavior').exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -623,22 +623,6 @@
 </t>
   </si>
   <si>
-    <t>Condition.extension:recurrenceOf</t>
-  </si>
-  <si>
-    <t>recurrenceOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-recurrence-of|0.2.0}
-</t>
-  </si>
-  <si>
-    <t>Recurrence Of</t>
-  </si>
-  <si>
-    <t>Indicates that the condition is a recurrence of a previous condition, and provides a reference to that previous condition.</t>
-  </si>
-  <si>
     <t>Condition.modifierExtension</t>
   </si>
   <si>
@@ -723,86 +707,6 @@
   </si>
   <si>
     <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Condition.clinicalStatus.id</t>
-  </si>
-  <si>
-    <t>Condition.clinicalStatus.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Condition.clinicalStatus.extension:recurrenceType</t>
-  </si>
-  <si>
-    <t>recurrenceType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-recurrence-type|0.2.0}
-</t>
-  </si>
-  <si>
-    <t>Recurrence Type</t>
-  </si>
-  <si>
-    <t>Indicates the type of recurrence for the condition (local or regional).</t>
-  </si>
-  <si>
-    <t>Condition.clinicalStatus.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Condition.clinicalStatus.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Condition.verificationStatus</t>
@@ -1014,6 +918,12 @@
     <t>Condition.bodySite.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>Condition.bodySite.extension:locationQualifier</t>
   </si>
   <si>
@@ -1043,7 +953,53 @@
     <t>Condition.bodySite.coding</t>
   </si>
   <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
     <t>Condition.bodySite.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Condition.subject</t>
@@ -1686,7 +1642,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP63"/>
+  <dimension ref="A1:AP57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4130,46 +4086,48 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>194</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C21" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="D21" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I21" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="J21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>20</v>
       </c>
@@ -4217,7 +4175,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4241,7 +4199,7 @@
         <v>20</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>20</v>
@@ -4252,14 +4210,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4272,25 +4230,25 @@
         <v>20</v>
       </c>
       <c r="I22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="J22" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="K22" t="s" s="2">
-        <v>135</v>
+        <v>202</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4339,7 +4297,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4351,10 +4309,10 @@
         <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>20</v>
@@ -4363,21 +4321,21 @@
         <v>20</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4388,32 +4346,30 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>20</v>
       </c>
@@ -4437,13 +4393,11 @@
         <v>20</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>20</v>
@@ -4461,34 +4415,34 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>20</v>
+        <v>217</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>20</v>
@@ -4496,10 +4450,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4525,13 +4479,13 @@
         <v>174</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4561,7 +4515,7 @@
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>20</v>
@@ -4579,7 +4533,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4588,36 +4542,36 @@
         <v>90</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>20</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4625,13 +4579,13 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>20</v>
@@ -4640,15 +4594,17 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>157</v>
+        <v>231</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4673,83 +4629,83 @@
         <v>20</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>20</v>
+        <v>234</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>20</v>
+        <v>232</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>20</v>
+        <v>235</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="AC25" s="2"/>
       <c r="AD25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>159</v>
+        <v>230</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>20</v>
+        <v>237</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>20</v>
+        <v>238</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>160</v>
+        <v>239</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="D26" t="s" s="2">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>20</v>
@@ -4758,16 +4714,16 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4793,31 +4749,31 @@
         <v>20</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>20</v>
+        <v>244</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>20</v>
+        <v>245</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4829,36 +4785,36 @@
         <v>20</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>20</v>
+        <v>237</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>20</v>
+        <v>238</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>160</v>
+        <v>239</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="B27" t="s" s="2">
-        <v>227</v>
-      </c>
       <c r="C27" t="s" s="2">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>20</v>
@@ -4868,10 +4824,10 @@
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>20</v>
@@ -4880,16 +4836,20 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
       </c>
@@ -4913,13 +4873,13 @@
         <v>20</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>20</v>
+        <v>244</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>20</v>
@@ -4937,7 +4897,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4949,22 +4909,22 @@
         <v>20</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>20</v>
+        <v>237</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>20</v>
+        <v>238</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>20</v>
+        <v>239</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>20</v>
@@ -4972,10 +4932,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4986,7 +4946,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -4995,23 +4955,21 @@
         <v>20</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>236</v>
+        <v>174</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>20</v>
       </c>
@@ -5035,13 +4993,13 @@
         <v>20</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>20</v>
+        <v>254</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
@@ -5059,13 +5017,13 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>20</v>
@@ -5077,41 +5035,41 @@
         <v>20</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>20</v>
+        <v>259</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>20</v>
+        <v>260</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>20</v>
+        <v>262</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>20</v>
@@ -5120,19 +5078,17 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -5142,7 +5098,7 @@
         <v>20</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>20</v>
@@ -5157,13 +5113,11 @@
         <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>20</v>
+        <v>267</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -5181,7 +5135,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5196,30 +5150,30 @@
         <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>20</v>
+        <v>268</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>20</v>
+        <v>272</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>20</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5227,16 +5181,16 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>91</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>91</v>
@@ -5245,13 +5199,13 @@
         <v>174</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5281,7 +5235,7 @@
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>20</v>
@@ -5299,45 +5253,45 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>225</v>
+        <v>20</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>260</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5345,13 +5299,13 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G31" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H31" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>20</v>
@@ -5360,17 +5314,15 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>262</v>
+        <v>157</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5395,83 +5347,83 @@
         <v>20</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>265</v>
+        <v>20</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>263</v>
+        <v>20</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AC31" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="AD31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>261</v>
+        <v>159</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>268</v>
+        <v>20</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>269</v>
+        <v>20</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>270</v>
+        <v>160</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>271</v>
+        <v>20</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>20</v>
@@ -5480,16 +5432,16 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>264</v>
+        <v>198</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5515,31 +5467,31 @@
         <v>20</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>177</v>
+        <v>20</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>275</v>
+        <v>20</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>276</v>
+        <v>20</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>261</v>
+        <v>164</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5551,22 +5503,22 @@
         <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>268</v>
+        <v>20</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>269</v>
+        <v>20</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>270</v>
+        <v>160</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>271</v>
+        <v>20</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>20</v>
@@ -5574,13 +5526,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>20</v>
@@ -5602,20 +5554,16 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>174</v>
+        <v>288</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>20</v>
       </c>
@@ -5639,13 +5587,13 @@
         <v>20</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>177</v>
+        <v>20</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>275</v>
+        <v>20</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>282</v>
+        <v>20</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>20</v>
@@ -5663,7 +5611,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>261</v>
+        <v>164</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5675,35 +5623,37 @@
         <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>268</v>
+        <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>269</v>
+        <v>20</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>271</v>
+        <v>20</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="D34" t="s" s="2">
         <v>20</v>
       </c>
@@ -5715,7 +5665,7 @@
         <v>90</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>20</v>
@@ -5724,17 +5674,15 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>174</v>
+        <v>292</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -5759,13 +5707,13 @@
         <v>20</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>285</v>
+        <v>20</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>286</v>
+        <v>20</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>20</v>
@@ -5783,59 +5731,59 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>283</v>
+        <v>164</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>287</v>
+        <v>20</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>288</v>
+        <v>20</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>289</v>
+        <v>20</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>290</v>
+        <v>20</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>291</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>293</v>
+        <v>20</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>20</v>
@@ -5844,17 +5792,19 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>174</v>
+        <v>295</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O35" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -5864,7 +5814,7 @@
         <v>20</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>297</v>
+        <v>20</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>20</v>
@@ -5879,11 +5829,13 @@
         <v>20</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="Y35" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z35" t="s" s="2">
-        <v>298</v>
+        <v>20</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>20</v>
@@ -5901,13 +5853,13 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>20</v>
@@ -5916,10 +5868,10 @@
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>299</v>
+        <v>20</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>301</v>
@@ -5928,18 +5880,18 @@
         <v>302</v>
       </c>
       <c r="AO35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP35" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AP35" t="s" s="2">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>305</v>
-      </c>
       <c r="B36" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5947,13 +5899,13 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G36" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H36" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>20</v>
@@ -5962,18 +5914,20 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="N36" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>20</v>
       </c>
@@ -5997,11 +5951,13 @@
         <v>20</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y36" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z36" t="s" s="2">
-        <v>309</v>
+        <v>20</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>20</v>
@@ -6019,13 +5975,13 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>20</v>
@@ -6037,59 +5993,61 @@
         <v>20</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AM36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP36" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AO36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="37" hidden="true">
-      <c r="A37" t="s" s="2">
-        <v>313</v>
-      </c>
       <c r="B37" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>20</v>
+        <v>312</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>156</v>
+        <v>313</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>157</v>
+        <v>314</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>158</v>
+        <v>315</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>20</v>
       </c>
@@ -6137,10 +6095,10 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>159</v>
+        <v>311</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>90</v>
@@ -6149,22 +6107,22 @@
         <v>20</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>20</v>
+        <v>317</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>20</v>
+        <v>318</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>160</v>
+        <v>319</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>20</v>
+        <v>320</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>20</v>
@@ -6172,21 +6130,21 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>20</v>
@@ -6195,19 +6153,19 @@
         <v>20</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>135</v>
+        <v>322</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>203</v>
+        <v>323</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6245,46 +6203,46 @@
         <v>20</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>164</v>
+        <v>321</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>20</v>
+        <v>324</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>20</v>
+        <v>325</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>160</v>
+        <v>326</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>20</v>
+        <v>327</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>20</v>
@@ -6292,14 +6250,12 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
         <v>20</v>
       </c>
@@ -6308,7 +6264,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>91</v>
@@ -6317,18 +6273,20 @@
         <v>20</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -6377,34 +6335,34 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>164</v>
+        <v>328</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>20</v>
+        <v>333</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>20</v>
+        <v>334</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>20</v>
+        <v>335</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>20</v>
+        <v>336</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>20</v>
@@ -6412,14 +6370,12 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
         <v>20</v>
       </c>
@@ -6440,15 +6396,17 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -6497,19 +6455,19 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>164</v>
+        <v>337</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>20</v>
+        <v>341</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>20</v>
@@ -6521,21 +6479,21 @@
         <v>20</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>20</v>
+        <v>342</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>20</v>
+        <v>343</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6546,10 +6504,10 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>20</v>
@@ -6558,20 +6516,16 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>236</v>
+        <v>345</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>20</v>
       </c>
@@ -6619,13 +6573,13 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>241</v>
+        <v>344</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>20</v>
@@ -6640,13 +6594,13 @@
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>242</v>
+        <v>346</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>243</v>
+        <v>347</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>20</v>
+        <v>348</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>20</v>
@@ -6654,10 +6608,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6680,20 +6634,16 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>156</v>
+        <v>350</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>20</v>
       </c>
@@ -6741,7 +6691,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>249</v>
+        <v>349</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6762,38 +6712,38 @@
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>20</v>
+        <v>352</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>326</v>
+        <v>20</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>20</v>
@@ -6802,18 +6752,16 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>328</v>
+        <v>222</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>329</v>
+        <v>222</v>
       </c>
       <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>330</v>
-      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>20</v>
       </c>
@@ -6861,10 +6809,10 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>90</v>
@@ -6876,19 +6824,19 @@
         <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>331</v>
+        <v>20</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>20</v>
@@ -6896,10 +6844,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6910,7 +6858,7 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>20</v>
@@ -6919,20 +6867,18 @@
         <v>20</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -6981,45 +6927,45 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>102</v>
+        <v>359</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>338</v>
+        <v>20</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>339</v>
+        <v>20</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>341</v>
+        <v>20</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7033,26 +6979,24 @@
         <v>90</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>343</v>
+        <v>156</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>344</v>
+        <v>157</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -7101,7 +7045,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>342</v>
+        <v>159</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7113,47 +7057,47 @@
         <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>347</v>
+        <v>20</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>348</v>
+        <v>20</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>349</v>
+        <v>160</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>20</v>
@@ -7162,16 +7106,16 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>343</v>
+        <v>135</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>352</v>
+        <v>284</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>353</v>
+        <v>285</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>354</v>
+        <v>198</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7221,19 +7165,19 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>351</v>
+        <v>164</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>355</v>
+        <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>20</v>
@@ -7245,53 +7189,57 @@
         <v>20</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>356</v>
+        <v>160</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>357</v>
+        <v>20</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>20</v>
+        <v>364</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>359</v>
+        <v>135</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>253</v>
+        <v>365</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
       </c>
@@ -7339,19 +7287,19 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>20</v>
@@ -7360,13 +7308,13 @@
         <v>20</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>360</v>
+        <v>20</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>361</v>
+        <v>133</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>362</v>
+        <v>20</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>20</v>
@@ -7374,10 +7322,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7397,16 +7345,16 @@
         <v>20</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>364</v>
+        <v>174</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>253</v>
+        <v>369</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>253</v>
+        <v>370</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7433,13 +7381,13 @@
         <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>20</v>
+        <v>371</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>20</v>
+        <v>372</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>20</v>
@@ -7457,7 +7405,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7466,7 +7414,7 @@
         <v>90</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>20</v>
+        <v>374</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>102</v>
@@ -7475,16 +7423,16 @@
         <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>20</v>
+        <v>375</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>365</v>
+        <v>271</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>366</v>
+        <v>20</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>20</v>
@@ -7492,10 +7440,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7506,7 +7454,7 @@
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>20</v>
@@ -7515,16 +7463,16 @@
         <v>20</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>253</v>
+        <v>378</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>253</v>
+        <v>379</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7575,16 +7523,16 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>20</v>
+        <v>374</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>102</v>
@@ -7596,13 +7544,13 @@
         <v>20</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>368</v>
+        <v>20</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>370</v>
+        <v>20</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>20</v>
@@ -7610,10 +7558,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7624,7 +7572,7 @@
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>20</v>
@@ -7636,13 +7584,13 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>372</v>
+        <v>174</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>253</v>
+        <v>382</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>253</v>
+        <v>383</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7669,13 +7617,13 @@
         <v>20</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>20</v>
+        <v>371</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>20</v>
+        <v>385</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>20</v>
@@ -7693,19 +7641,19 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>373</v>
+        <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>20</v>
@@ -7717,7 +7665,7 @@
         <v>20</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>20</v>
@@ -7728,10 +7676,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7742,7 +7690,7 @@
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>20</v>
@@ -7754,15 +7702,17 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>156</v>
+        <v>358</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>157</v>
+        <v>222</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -7811,19 +7761,19 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>159</v>
+        <v>387</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>20</v>
+        <v>389</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>20</v>
@@ -7835,7 +7785,7 @@
         <v>20</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>160</v>
+        <v>390</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
@@ -7846,21 +7796,21 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>20</v>
@@ -7872,17 +7822,15 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>228</v>
+        <v>157</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -7931,19 +7879,19 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>20</v>
@@ -7966,14 +7914,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>378</v>
+        <v>195</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7986,26 +7934,24 @@
         <v>20</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>379</v>
+        <v>284</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>380</v>
+        <v>285</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>20</v>
       </c>
@@ -8053,7 +7999,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>381</v>
+        <v>164</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8077,7 +8023,7 @@
         <v>20</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>20</v>
@@ -8088,42 +8034,46 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>20</v>
+        <v>364</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
       </c>
@@ -8147,13 +8097,13 @@
         <v>20</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>385</v>
+        <v>20</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>386</v>
+        <v>20</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>387</v>
+        <v>20</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>20</v>
@@ -8171,31 +8121,31 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>388</v>
+        <v>20</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>389</v>
+        <v>20</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>302</v>
+        <v>133</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>20</v>
@@ -8206,10 +8156,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8229,16 +8179,16 @@
         <v>20</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>391</v>
+        <v>174</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8265,13 +8215,11 @@
         <v>20</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>20</v>
+        <v>397</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>20</v>
@@ -8289,7 +8237,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8298,25 +8246,25 @@
         <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>20</v>
+        <v>399</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>20</v>
+        <v>237</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>20</v>
+        <v>401</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>20</v>
@@ -8324,10 +8272,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8338,7 +8286,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>20</v>
@@ -8347,16 +8295,16 @@
         <v>20</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>174</v>
+        <v>403</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8383,40 +8331,40 @@
         <v>20</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>385</v>
+        <v>20</v>
       </c>
       <c r="Y56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI56" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>102</v>
@@ -8431,10 +8379,10 @@
         <v>20</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>20</v>
+        <v>401</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>20</v>
@@ -8442,10 +8390,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8468,17 +8416,15 @@
         <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>253</v>
+        <v>408</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>402</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>20</v>
@@ -8527,7 +8473,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8539,741 +8485,29 @@
         <v>20</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>403</v>
+        <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>20</v>
+        <v>410</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>20</v>
+        <v>411</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O59" s="2"/>
-      <c r="P59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="P60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y61" s="2"/>
-      <c r="Z61" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AP61" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" hidden="true">
-      <c r="A62" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AP62" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP63" t="s" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP63">
+  <autoFilter ref="A1:AP57">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9283,7 +8517,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI62">
+  <conditionalFormatting sqref="A2:AI56">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-onconova-secondary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-secondary-cancer-condition.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$58</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="418">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T13:56:54+00:00</t>
+    <t>2025-11-19T14:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -621,6 +621,22 @@
   <si>
     <t xml:space="preserve">ext-1
 </t>
+  </si>
+  <si>
+    <t>Condition.extension:differentiation</t>
+  </si>
+  <si>
+    <t>differentiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-differentiation|0.2.0}
+</t>
+  </si>
+  <si>
+    <t>Recurrence Type</t>
+  </si>
+  <si>
+    <t>THe histological differentiation of the tumor.</t>
   </si>
   <si>
     <t>Condition.modifierExtension</t>
@@ -1642,7 +1658,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP57"/>
+  <dimension ref="A1:AP58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4086,48 +4102,46 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>194</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="D21" t="s" s="2">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N21" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="O21" t="s" s="2">
-        <v>199</v>
-      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>20</v>
       </c>
@@ -4175,7 +4189,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4199,7 +4213,7 @@
         <v>20</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>20</v>
@@ -4210,14 +4224,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4230,25 +4244,25 @@
         <v>20</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4297,7 +4311,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4309,10 +4323,10 @@
         <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>20</v>
@@ -4321,21 +4335,21 @@
         <v>20</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>208</v>
+        <v>133</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4346,30 +4360,32 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="O23" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M23" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>20</v>
       </c>
@@ -4393,11 +4409,13 @@
         <v>20</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y23" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z23" t="s" s="2">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>20</v>
@@ -4415,34 +4433,34 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>215</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>20</v>
@@ -4450,10 +4468,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4479,13 +4497,13 @@
         <v>174</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4515,7 +4533,7 @@
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>20</v>
@@ -4533,7 +4551,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4542,36 +4560,36 @@
         <v>90</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AO24" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AP24" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AM24" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AP24" t="s" s="2">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="25" hidden="true">
-      <c r="A25" t="s" s="2">
-        <v>230</v>
-      </c>
       <c r="B25" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4579,31 +4597,31 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G25" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>91</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>174</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4629,71 +4647,69 @@
         <v>20</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AC25" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="AD25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI25" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>20</v>
+        <v>221</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>20</v>
+        <v>234</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
         <v>20</v>
       </c>
@@ -4717,13 +4733,13 @@
         <v>174</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4749,31 +4765,29 @@
         <v>20</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>177</v>
+        <v>239</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="AC26" s="2"/>
       <c r="AD26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4791,16 +4805,16 @@
         <v>20</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>20</v>
@@ -4811,7 +4825,7 @@
         <v>246</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>247</v>
@@ -4821,7 +4835,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>80</v>
@@ -4842,14 +4856,12 @@
         <v>248</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>20</v>
       </c>
@@ -4876,10 +4888,10 @@
         <v>177</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>20</v>
@@ -4897,7 +4909,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4915,29 +4927,31 @@
         <v>20</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="C28" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="B28" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
         <v>20</v>
       </c>
@@ -4946,10 +4960,10 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>20</v>
@@ -4961,15 +4975,17 @@
         <v>174</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
       </c>
@@ -4993,13 +5009,13 @@
         <v>20</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
@@ -5017,13 +5033,13 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>20</v>
@@ -5035,61 +5051,61 @@
         <v>20</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AO28" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AP28" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" hidden="true">
+      <c r="A29" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AN28" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>261</v>
-      </c>
       <c r="B29" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>262</v>
+        <v>20</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>174</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>20</v>
       </c>
@@ -5098,7 +5114,7 @@
         <v>20</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>20</v>
@@ -5113,11 +5129,13 @@
         <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="Y29" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="Z29" t="s" s="2">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -5135,7 +5153,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5150,41 +5168,41 @@
         <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>268</v>
+        <v>20</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>20</v>
+        <v>267</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>91</v>
@@ -5199,15 +5217,15 @@
         <v>174</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
       </c>
@@ -5216,7 +5234,7 @@
         <v>20</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>20</v>
+        <v>271</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>20</v>
@@ -5231,11 +5249,11 @@
         <v>20</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>177</v>
+        <v>239</v>
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>20</v>
@@ -5253,13 +5271,13 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>20</v>
@@ -5268,30 +5286,30 @@
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>20</v>
+        <v>273</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AO30" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AP30" t="s" s="2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AM30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP30" t="s" s="2">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="31" hidden="true">
-      <c r="A31" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="B31" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5299,30 +5317,32 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>157</v>
+        <v>280</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5347,13 +5367,11 @@
         <v>20</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>20</v>
+        <v>283</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>20</v>
@@ -5371,56 +5389,56 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>159</v>
+        <v>279</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>20</v>
+        <v>284</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>160</v>
+        <v>285</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>20</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>20</v>
@@ -5432,17 +5450,15 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>284</v>
+        <v>157</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5479,31 +5495,31 @@
         <v>20</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>20</v>
@@ -5524,18 +5540,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5545,7 +5559,7 @@
         <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>20</v>
@@ -5554,15 +5568,17 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>288</v>
+        <v>135</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>289</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -5599,16 +5615,16 @@
         <v>20</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>164</v>
@@ -5635,7 +5651,7 @@
         <v>20</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
@@ -5646,13 +5662,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>20</v>
@@ -5662,7 +5678,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>91</v>
@@ -5674,13 +5690,13 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5764,14 +5780,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="D35" t="s" s="2">
         <v>20</v>
       </c>
@@ -5780,32 +5798,28 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N35" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="O35" t="s" s="2">
-        <v>299</v>
-      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>20</v>
       </c>
@@ -5853,7 +5867,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>300</v>
+        <v>164</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5865,7 +5879,7 @@
         <v>20</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>20</v>
@@ -5874,10 +5888,10 @@
         <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>301</v>
+        <v>20</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>302</v>
+        <v>20</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>20</v>
@@ -5888,10 +5902,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5902,7 +5916,7 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>20</v>
@@ -5914,19 +5928,19 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>156</v>
+        <v>300</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="O36" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>20</v>
@@ -5975,13 +5989,13 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>20</v>
@@ -5996,10 +6010,10 @@
         <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>20</v>
@@ -6008,26 +6022,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>312</v>
+        <v>20</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>20</v>
@@ -6036,17 +6050,19 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>313</v>
+        <v>156</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O37" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>20</v>
@@ -6095,10 +6111,10 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>90</v>
@@ -6110,44 +6126,44 @@
         <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>317</v>
+        <v>20</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>320</v>
+        <v>20</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>20</v>
+        <v>317</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>20</v>
@@ -6156,18 +6172,18 @@
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>222</v>
+        <v>319</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
       </c>
@@ -6215,10 +6231,10 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>90</v>
@@ -6230,30 +6246,30 @@
         <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AL38" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AO38" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AN38" t="s" s="2">
+      <c r="AP38" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AO38" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>328</v>
-      </c>
       <c r="B39" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6267,7 +6283,7 @@
         <v>90</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>20</v>
@@ -6276,16 +6292,16 @@
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>330</v>
+        <v>227</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>331</v>
+        <v>227</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6335,7 +6351,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6350,19 +6366,19 @@
         <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>20</v>
@@ -6370,10 +6386,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6393,19 +6409,19 @@
         <v>20</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6455,7 +6471,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6464,25 +6480,25 @@
         <v>90</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>341</v>
+        <v>20</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>20</v>
+        <v>338</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>20</v>
+        <v>339</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>20</v>
@@ -6490,10 +6506,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6513,18 +6529,20 @@
         <v>20</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L41" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -6573,7 +6591,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6582,7 +6600,7 @@
         <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>20</v>
+        <v>346</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>102</v>
@@ -6594,7 +6612,7 @@
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>346</v>
+        <v>20</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>347</v>
@@ -6606,7 +6624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
         <v>349</v>
       </c>
@@ -6625,7 +6643,7 @@
         <v>90</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>20</v>
@@ -6637,10 +6655,10 @@
         <v>350</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6712,13 +6730,13 @@
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>20</v>
+        <v>351</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>20</v>
@@ -6726,10 +6744,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6752,13 +6770,13 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6809,7 +6827,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6830,13 +6848,13 @@
         <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>354</v>
+        <v>20</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>20</v>
@@ -6844,10 +6862,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6858,7 +6876,7 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>20</v>
@@ -6867,16 +6885,16 @@
         <v>20</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6927,34 +6945,34 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>360</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>20</v>
+        <v>361</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>20</v>
@@ -6962,10 +6980,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6976,7 +6994,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>20</v>
@@ -6988,13 +7006,13 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>156</v>
+        <v>363</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>157</v>
+        <v>227</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>158</v>
+        <v>227</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7045,19 +7063,19 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>159</v>
+        <v>362</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>20</v>
+        <v>364</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>20</v>
@@ -7069,7 +7087,7 @@
         <v>20</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>160</v>
+        <v>365</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>20</v>
@@ -7080,21 +7098,21 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>20</v>
@@ -7106,17 +7124,15 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>284</v>
+        <v>157</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -7165,19 +7181,19 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>20</v>
@@ -7200,14 +7216,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>364</v>
+        <v>200</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7220,26 +7236,24 @@
         <v>20</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>365</v>
+        <v>289</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>366</v>
+        <v>290</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>20</v>
       </c>
@@ -7287,7 +7301,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>367</v>
+        <v>164</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7311,7 +7325,7 @@
         <v>20</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>20</v>
@@ -7329,35 +7343,39 @@
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>20</v>
+        <v>369</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
       </c>
@@ -7381,55 +7399,55 @@
         <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>371</v>
+        <v>20</v>
       </c>
       <c r="Y48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF48" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="Z48" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>368</v>
-      </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>374</v>
+        <v>20</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>375</v>
+        <v>20</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>271</v>
+        <v>133</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>20</v>
@@ -7440,10 +7458,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7454,7 +7472,7 @@
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>20</v>
@@ -7466,13 +7484,13 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>377</v>
+        <v>174</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7499,13 +7517,13 @@
         <v>20</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>20</v>
+        <v>376</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>20</v>
+        <v>377</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>20</v>
+        <v>378</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>20</v>
@@ -7523,16 +7541,16 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>102</v>
@@ -7541,13 +7559,13 @@
         <v>20</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>20</v>
+        <v>380</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>20</v>
+        <v>223</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>380</v>
+        <v>276</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>20</v>
@@ -7572,7 +7590,7 @@
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>20</v>
@@ -7584,13 +7602,13 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>174</v>
+        <v>382</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7617,13 +7635,13 @@
         <v>20</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>371</v>
+        <v>20</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>385</v>
+        <v>20</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>20</v>
@@ -7647,10 +7665,10 @@
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>20</v>
+        <v>379</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>102</v>
@@ -7665,7 +7683,7 @@
         <v>20</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>20</v>
@@ -7676,10 +7694,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7690,7 +7708,7 @@
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>20</v>
@@ -7702,17 +7720,15 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>358</v>
+        <v>174</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>222</v>
+        <v>387</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N51" t="s" s="2">
         <v>388</v>
       </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -7737,13 +7753,13 @@
         <v>20</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>20</v>
+        <v>376</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>20</v>
+        <v>389</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>20</v>
+        <v>390</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>20</v>
@@ -7761,19 +7777,19 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>389</v>
+        <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>20</v>
@@ -7785,7 +7801,7 @@
         <v>20</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
@@ -7796,10 +7812,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7810,7 +7826,7 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>20</v>
@@ -7822,15 +7838,17 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>156</v>
+        <v>363</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>157</v>
+        <v>227</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -7879,19 +7897,19 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>159</v>
+        <v>392</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>20</v>
+        <v>394</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>20</v>
@@ -7903,7 +7921,7 @@
         <v>20</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>160</v>
+        <v>395</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>20</v>
@@ -7914,21 +7932,21 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>20</v>
@@ -7940,17 +7958,15 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>284</v>
+        <v>157</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -7999,19 +8015,19 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>20</v>
@@ -8034,14 +8050,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>364</v>
+        <v>200</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8054,26 +8070,24 @@
         <v>20</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>365</v>
+        <v>289</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>366</v>
+        <v>290</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>20</v>
       </c>
@@ -8121,7 +8135,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>367</v>
+        <v>164</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8145,7 +8159,7 @@
         <v>20</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>20</v>
@@ -8156,14 +8170,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>20</v>
+        <v>369</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8176,22 +8190,26 @@
         <v>20</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>20</v>
       </c>
@@ -8215,11 +8233,13 @@
         <v>20</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y55" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z55" t="s" s="2">
-        <v>397</v>
+        <v>20</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>20</v>
@@ -8237,7 +8257,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8246,25 +8266,25 @@
         <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>398</v>
+        <v>20</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>399</v>
+        <v>20</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>237</v>
+        <v>20</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>400</v>
+        <v>133</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>401</v>
+        <v>20</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>20</v>
@@ -8272,10 +8292,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8298,13 +8318,13 @@
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>403</v>
+        <v>174</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8331,13 +8351,11 @@
         <v>20</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="Y56" s="2"/>
       <c r="Z56" t="s" s="2">
-        <v>20</v>
+        <v>402</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>20</v>
@@ -8355,7 +8373,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8364,25 +8382,25 @@
         <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>20</v>
+        <v>404</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>20</v>
+        <v>242</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>20</v>
@@ -8390,10 +8408,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8413,16 +8431,16 @@
         <v>20</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8473,7 +8491,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8482,32 +8500,150 @@
         <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>20</v>
+        <v>403</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>410</v>
+        <v>20</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AP57" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="AN57" t="s" s="2">
+      <c r="B58" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AO57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP57" t="s" s="2">
+      <c r="L58" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP58" t="s" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP57">
+  <autoFilter ref="A1:AP58">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8517,7 +8653,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI56">
+  <conditionalFormatting sqref="A2:AI57">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-onconova-secondary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-secondary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T14:47:01+00:00</t>
+    <t>2025-11-21T06:40:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-secondary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-secondary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T06:40:28+00:00</t>
+    <t>2025-11-21T12:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-secondary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-secondary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T12:46:13+00:00</t>
+    <t>2025-11-21T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-secondary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-secondary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T14:06:51+00:00</t>
+    <t>2025-11-22T09:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-secondary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-secondary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:54:31+00:00</t>
+    <t>2025-11-22T09:58:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,8 +84,10 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile recording the a secondary neoplasm, including location and the date of onset of metastases. A secondary cancer results from the spread (metastasization) of cancer from its original site (Definition from: NCI Dictionary of Cancer Terms).
-It constrains the mCODE [SecondaryCancerCCondition profile](http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-secondary-cancer-condition) to constrain the terminologies of the cancer topography and morphology extensions to use exclusively ICD-O-3 codes.</t>
+    <t xml:space="preserve">A profile recording the a secondary neoplasm, including location and the date of onset of metastases. A secondary cancer results from the spread (metastasization) of cancer from its original site (Definition from: NCI Dictionary of Cancer Terms).
+It constrains the mCODE [SecondaryCancerCCondition profile](http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-secondary-cancer-condition) to constrain the terminologies of the cancer topography and morphology extensions to use exclusively ICD-O-3 codes.
+**Conformance:**
+Condition resources representing a metastatic neoplastic entity in the scope of Onconova SHALL conform to this profile. Any resource intended to conform to this profile SHOULD populate `meta.profile` accordingly. </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -115,7 +117,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-secondary-cancer-condition|4.0.0</t>
+    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-secondary-cancer-condition</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -374,7 +376,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -465,11 +467,11 @@
     <t>assertedDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {condition-assertedDate|5.2.0}
+    <t xml:space="preserve">Extension {condition-assertedDate}
 </t>
   </si>
   <si>
-    <t>(USCDI) Date the condition was first asserted</t>
+    <t>Date the condition was first asserted</t>
   </si>
   <si>
     <t>The date on which the existence of the Condition was first asserted or acknowledged.</t>
@@ -488,7 +490,7 @@
     <t>histologyMorphologyBehavior</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-histology-morphology-behavior|4.0.0}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-histology-morphology-behavior}
 </t>
   </si>
   <si>
@@ -572,7 +574,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-icdo3-morphology-behavior|0.2.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-icdo3-morphology-behaviors</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -584,7 +586,7 @@
     <t>relatedPrimaryCancerCondition</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {condition-related|5.2.0}
+    <t xml:space="preserve">Extension {condition-related}
 </t>
   </si>
   <si>
@@ -612,7 +614,7 @@
     <t>Condition.extension:relatedPrimaryCancerCondition.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-primary-cancer-condition|0.2.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-primary-cancer-condition)
 </t>
   </si>
   <si>
@@ -629,14 +631,14 @@
     <t>differentiation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-differentiation|0.2.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-histological-differentiation}
 </t>
   </si>
   <si>
-    <t>Recurrence Type</t>
-  </si>
-  <si>
-    <t>THe histological differentiation of the tumor.</t>
+    <t>Histological Differentiation</t>
+  </si>
+  <si>
+    <t>The histological differentiation of the tumor.</t>
   </si>
   <si>
     <t>Condition.modifierExtension</t>
@@ -702,7 +704,7 @@
     <t>The data type is CodeableConcept because clinicalStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-clinical|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-clinical</t>
   </si>
   <si>
     <t>con-3
@@ -735,7 +737,7 @@
 The data type is CodeableConcept because verificationStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-ver-status|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-ver-status</t>
   </si>
   <si>
     <t>con-3
@@ -770,7 +772,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-category|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-category</t>
   </si>
   <si>
     <t xml:space="preserve">pattern:$this}
@@ -801,7 +803,7 @@
     <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-problem-or-health-concern|6.1.0</t>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-problem-or-health-concern</t>
   </si>
   <si>
     <t>Condition.category:screening-assessment</t>
@@ -819,7 +821,7 @@
     <t>Used for filtering condition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-screening-assessment-condition-category|6.1.0</t>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-screening-assessment-condition-category</t>
   </si>
   <si>
     <t>Condition.severity</t>
@@ -831,7 +833,7 @@
     <t>A subjective assessment of the severity of the condition as evaluated by the clinician.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-severity|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-severity</t>
   </si>
   <si>
     <t>&lt; 272141005 |Severities|</t>
@@ -874,7 +876,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/ValueSet/mcode-secondary-cancer-disorder-vs|4.0.0</t>
+    <t>http://hl7.org/fhir/us/mcode/ValueSet/mcode-secondary-cancer-disorder-vs</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -916,7 +918,7 @@
     <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-icdo3-topography|0.2.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-icdo3-topographies</t>
   </si>
   <si>
     <t>&lt; 442083009  |Anatomical or acquired body structure|</t>
@@ -946,24 +948,24 @@
     <t>locationQualifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-body-location-qualifier|4.0.0}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-body-location-qualifier}
 </t>
   </si>
   <si>
-    <t>General location qualifier (excluding laterality) for this bodySite</t>
-  </si>
-  <si>
     <t>Condition.bodySite.extension:lateralityQualifier</t>
   </si>
   <si>
     <t>lateralityQualifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-laterality-qualifier|4.0.0}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-laterality-qualifier}
 </t>
   </si>
   <si>
-    <t>Laterality qualifier for this bodySite</t>
+    <t>Laterality Qualifier Extension</t>
+  </si>
+  <si>
+    <t>Qualifier to specify laterality.</t>
   </si>
   <si>
     <t>Condition.bodySite.coding</t>
@@ -1025,7 +1027,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient)
 </t>
   </si>
   <si>
@@ -1053,7 +1055,7 @@
     <t>Condition.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|4.0.1)
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -1141,7 +1143,7 @@
     <t>Condition.recorder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -1215,7 +1217,7 @@
     <t>Codes describing condition stages (e.g. Cancer stages).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-stage|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-stage</t>
   </si>
   <si>
     <t xml:space="preserve">con-1
@@ -1228,7 +1230,7 @@
     <t>Condition.stage.assessment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ClinicalImpression|4.0.1|DiagnosticReport|4.0.1|Observation|4.0.1)
+    <t xml:space="preserve">Reference(ClinicalImpression|DiagnosticReport|Observation)
 </t>
   </si>
   <si>
@@ -1253,7 +1255,7 @@
     <t>Codes describing the kind of condition staging (e.g. clinical or pathological).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-stage-type|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-stage-type</t>
   </si>
   <si>
     <t>./inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="stage type"]</t>
@@ -1290,7 +1292,7 @@
     <t>A manifestation or symptom that led to the recording of this condition.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/ValueSet/mcode-cancer-disease-status-evidence-type-vs|4.0.0</t>
+    <t>http://hl7.org/fhir/us/mcode/ValueSet/mcode-cancer-disease-status-evidence-type-vs</t>
   </si>
   <si>
     <t xml:space="preserve">con-2
@@ -1309,7 +1311,7 @@
     <t>Condition.evidence.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource|4.0.1)
+    <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
@@ -1677,7 +1679,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="83.86328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.09765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1692,7 +1694,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="150.18359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="72.640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="68.109375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -5320,7 +5322,7 @@
         <v>90</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>91</v>
@@ -5693,10 +5695,10 @@
         <v>293</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>294</v>
+        <v>227</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>294</v>
+        <v>227</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5782,13 +5784,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>288</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>20</v>
@@ -5810,10 +5812,10 @@
         <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>298</v>

--- a/StructureDefinition-onconova-secondary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-secondary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:58:04+00:00</t>
+    <t>2025-11-24T08:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-secondary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-secondary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:04:46+00:00</t>
+    <t>2025-11-24T08:19:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-secondary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-secondary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:19:06+00:00</t>
+    <t>2025-11-24T08:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-secondary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-secondary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:55:00+00:00</t>
+    <t>2025-11-24T09:24:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-secondary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-secondary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T09:24:28+00:00</t>
+    <t>2025-11-24T11:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-secondary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-secondary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T11:19:41+00:00</t>
+    <t>2025-11-25T07:35:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-secondary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-secondary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T07:35:44+00:00</t>
+    <t>2025-11-25T10:34:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-secondary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-secondary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T10:34:25+00:00</t>
+    <t>2025-11-27T10:13:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-secondary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-secondary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T10:13:46+00:00</t>
+    <t>2025-11-27T13:06:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-secondary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-secondary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T13:06:44+00:00</t>
+    <t>2025-12-04T06:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-secondary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-secondary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:29:30+00:00</t>
+    <t>2025-12-04T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -275,7 +275,7 @@
   </si>
   <si>
     <t>con-3:Condition.clinicalStatus SHALL be present if verificationStatus is not entered-in-error and category is problem-list-item {clinicalStatus.exists() or verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code = 'entered-in-error').exists() or category.select($this='problem-list-item').empty()}
-con-4:If condition is abated, then clinicalStatus must be either inactive, resolved, or remission {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-5:Condition.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}o-con-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-con-req-2:The assertedDate extension is required and must be provided. {extension('http://hl7.org/fhir/StructureDefinition/condition-assertedDate').exists()}o-con-req-3:The bodySite element is required and must be provided. {bodySite.exists() and bodySite.coding.exists()}o-con-req-4:The histologyMorphologyBehavior extension is required and must be provided. {extension('http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-histology-morphology-behavior').exists()}</t>
+con-4:If condition is abated, then clinicalStatus must be either inactive, resolved, or remission {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-5:Condition.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}o-con-req-1:The subject element is required and must be provided. {subject.exists()}o-con-req-2:The assertedDate extension is required and must be provided. {extension('http://hl7.org/fhir/StructureDefinition/condition-assertedDate').exists()}o-con-req-3:The bodySite element is required and must be provided. {bodySite.exists() and bodySite.coding.exists()}o-con-req-4:The histologyMorphologyBehavior extension is required and must be provided. {extension('http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-histology-morphology-behavior').exists()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/StructureDefinition-onconova-secondary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-secondary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:46:00+00:00</t>
+    <t>2025-12-04T07:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-secondary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-secondary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T07:07:35+00:00</t>
+    <t>2025-12-04T10:18:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-secondary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-secondary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:18:27+00:00</t>
+    <t>2025-12-04T10:59:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-secondary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-secondary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:59:28+00:00</t>
+    <t>2026-02-25T14:29:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-secondary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-secondary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T14:29:35+00:00</t>
+    <t>2026-02-25T15:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
